--- a/Python3/src/13 Financial Python/Spreadsheets/data/writingToCells.xlsx
+++ b/Python3/src/13 Financial Python/Spreadsheets/data/writingToCells.xlsx
@@ -1,72 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="writing to cells" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="writing to cells" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="9">
-  <si>
-    <t>--A--</t>
-  </si>
-  <si>
-    <t>--B--</t>
-  </si>
-  <si>
-    <t>--C--</t>
-  </si>
-  <si>
-    <t>--D--</t>
-  </si>
-  <si>
-    <t>--E--</t>
-  </si>
-  <si>
-    <t>--F--</t>
-  </si>
-  <si>
-    <t>--G--</t>
-  </si>
-  <si>
-    <t>--H--</t>
-  </si>
-  <si>
-    <t>--I--</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="dd-mm-yyyy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -85,13 +50,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -380,616 +344,796 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1">
-        <v>43629.657488812532</v>
-      </c>
-      <c r="B1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
+        <v>43797.53612576699</v>
+      </c>
+      <c r="B1" t="n">
         <v>42</v>
       </c>
-      <c r="C1">
+      <c r="D1" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>43</v>
       </c>
-      <c r="D1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2">
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>25</v>
       </c>
-      <c r="B2">
+      <c r="B4" t="n">
         <v>28</v>
       </c>
-      <c r="C2">
+      <c r="C4" t="n">
         <v>31</v>
       </c>
-      <c r="D2">
+      <c r="D4" t="n">
         <v>34</v>
       </c>
-      <c r="E2">
+      <c r="E4" t="n">
         <v>37</v>
       </c>
-      <c r="F2">
+      <c r="F4" t="n">
         <v>40</v>
       </c>
-      <c r="G2">
+      <c r="G4" t="n">
         <v>43</v>
       </c>
-      <c r="H2">
+      <c r="H4" t="n">
         <v>46</v>
       </c>
-      <c r="I2">
+      <c r="I4" t="n">
         <v>49</v>
       </c>
-      <c r="J2">
+      <c r="J4" t="n">
         <v>52</v>
       </c>
-      <c r="K2">
+      <c r="K4" t="n">
         <v>55</v>
       </c>
-      <c r="L2">
+      <c r="L4" t="n">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3">
+    <row r="5">
+      <c r="A5" t="n">
         <v>25</v>
       </c>
-      <c r="B3">
+      <c r="B5" t="n">
         <v>28</v>
       </c>
-      <c r="C3">
+      <c r="C5" t="n">
         <v>31</v>
       </c>
-      <c r="D3">
+      <c r="D5" t="n">
         <v>34</v>
       </c>
-      <c r="E3">
+      <c r="E5" t="n">
         <v>37</v>
       </c>
-      <c r="F3">
+      <c r="F5" t="n">
         <v>40</v>
       </c>
-      <c r="G3">
+      <c r="G5" t="n">
         <v>43</v>
       </c>
-      <c r="H3">
+      <c r="H5" t="n">
         <v>46</v>
       </c>
-      <c r="I3">
+      <c r="I5" t="n">
         <v>49</v>
       </c>
-      <c r="J3">
+      <c r="J5" t="n">
         <v>52</v>
       </c>
-      <c r="K3">
+      <c r="K5" t="n">
         <v>55</v>
       </c>
-      <c r="L3">
+      <c r="L5" t="n">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4">
+    <row r="6">
+      <c r="A6" t="n">
         <v>25</v>
       </c>
-      <c r="B4">
+      <c r="B6" t="n">
         <v>28</v>
       </c>
-      <c r="C4">
+      <c r="C6" t="n">
         <v>31</v>
       </c>
-      <c r="D4">
+      <c r="D6" t="n">
         <v>34</v>
       </c>
-      <c r="E4">
+      <c r="E6" t="n">
         <v>37</v>
       </c>
-      <c r="F4">
+      <c r="F6" t="n">
         <v>40</v>
       </c>
-      <c r="G4">
+      <c r="G6" t="n">
         <v>43</v>
       </c>
-      <c r="H4">
+      <c r="H6" t="n">
         <v>46</v>
       </c>
-      <c r="I4">
+      <c r="I6" t="n">
         <v>49</v>
       </c>
-      <c r="J4">
+      <c r="J6" t="n">
         <v>52</v>
       </c>
-      <c r="K4">
+      <c r="K6" t="n">
         <v>55</v>
       </c>
-      <c r="L4">
+      <c r="L6" t="n">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5">
+    <row r="7">
+      <c r="A7" t="n">
         <v>25</v>
       </c>
-      <c r="B5">
+      <c r="B7" t="n">
         <v>28</v>
       </c>
-      <c r="C5">
+      <c r="C7" t="n">
         <v>31</v>
       </c>
-      <c r="D5">
+      <c r="D7" t="n">
         <v>34</v>
       </c>
-      <c r="E5">
+      <c r="E7" t="n">
         <v>37</v>
       </c>
-      <c r="F5">
+      <c r="F7" t="n">
         <v>40</v>
       </c>
-      <c r="G5">
+      <c r="G7" t="n">
         <v>43</v>
       </c>
-      <c r="H5">
+      <c r="H7" t="n">
         <v>46</v>
       </c>
-      <c r="I5">
+      <c r="I7" t="n">
         <v>49</v>
       </c>
-      <c r="J5">
+      <c r="J7" t="n">
         <v>52</v>
       </c>
-      <c r="K5">
+      <c r="K7" t="n">
         <v>55</v>
       </c>
-      <c r="L5">
+      <c r="L7" t="n">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6">
+    <row r="8">
+      <c r="A8" t="n">
         <v>25</v>
       </c>
-      <c r="B6">
+      <c r="B8" t="n">
         <v>28</v>
       </c>
-      <c r="C6">
+      <c r="C8" t="n">
         <v>31</v>
       </c>
-      <c r="D6">
+      <c r="D8" t="n">
         <v>34</v>
       </c>
-      <c r="E6">
+      <c r="E8" t="n">
         <v>37</v>
       </c>
-      <c r="F6">
+      <c r="F8" t="n">
         <v>40</v>
       </c>
-      <c r="G6">
+      <c r="G8" t="n">
         <v>43</v>
       </c>
-      <c r="H6">
+      <c r="H8" t="n">
         <v>46</v>
       </c>
-      <c r="I6">
+      <c r="I8" t="n">
         <v>49</v>
       </c>
-      <c r="J6">
+      <c r="J8" t="n">
         <v>52</v>
       </c>
-      <c r="K6">
+      <c r="K8" t="n">
         <v>55</v>
       </c>
-      <c r="L6">
+      <c r="L8" t="n">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="B7">
+    <row r="9">
+      <c r="B9" t="n">
         <v>4</v>
       </c>
-      <c r="E7">
+      <c r="E9" t="n">
         <v>25</v>
       </c>
-      <c r="H7">
+      <c r="H9" t="n">
         <v>64</v>
       </c>
-      <c r="K7">
+      <c r="K9" t="n">
         <v>121</v>
       </c>
-      <c r="N7">
+      <c r="N9" t="n">
         <v>196</v>
       </c>
-      <c r="Q7">
+      <c r="Q9" t="n">
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
-      <c r="B8">
+    <row r="10">
+      <c r="B10" t="n">
         <v>4</v>
       </c>
-      <c r="E8">
+      <c r="E10" t="n">
         <v>25</v>
       </c>
-      <c r="H8">
+      <c r="H10" t="n">
         <v>64</v>
       </c>
-      <c r="K8">
+      <c r="K10" t="n">
         <v>121</v>
       </c>
-      <c r="N8">
+      <c r="N10" t="n">
         <v>196</v>
       </c>
-      <c r="Q8">
+      <c r="Q10" t="n">
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="B9">
+    <row r="11">
+      <c r="B11" t="n">
         <v>4</v>
       </c>
-      <c r="E9">
+      <c r="E11" t="n">
         <v>25</v>
       </c>
-      <c r="H9">
+      <c r="H11" t="n">
         <v>64</v>
       </c>
-      <c r="K9">
+      <c r="K11" t="n">
         <v>121</v>
       </c>
-      <c r="N9">
+      <c r="N11" t="n">
         <v>196</v>
       </c>
-      <c r="Q9">
+      <c r="Q11" t="n">
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="B10">
+    <row r="12">
+      <c r="B12" t="n">
         <v>4</v>
       </c>
-      <c r="E10">
+      <c r="E12" t="n">
         <v>25</v>
       </c>
-      <c r="H10">
+      <c r="H12" t="n">
         <v>64</v>
       </c>
-      <c r="K10">
+      <c r="K12" t="n">
         <v>121</v>
       </c>
-      <c r="N10">
+      <c r="N12" t="n">
         <v>196</v>
       </c>
-      <c r="Q10">
+      <c r="Q12" t="n">
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
-      <c r="B11">
+    <row r="13">
+      <c r="B13" t="n">
         <v>4</v>
       </c>
-      <c r="E11">
+      <c r="E13" t="n">
         <v>25</v>
       </c>
-      <c r="H11">
+      <c r="H13" t="n">
         <v>64</v>
       </c>
-      <c r="K11">
+      <c r="K13" t="n">
         <v>121</v>
       </c>
-      <c r="N11">
+      <c r="N13" t="n">
         <v>196</v>
       </c>
-      <c r="Q11">
+      <c r="Q13" t="n">
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" t="s">
-        <v>8</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>--A--</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>--B--</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>--C--</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>--D--</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>--E--</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>--F--</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>--G--</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>--H--</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>--I--</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>--A--</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>--B--</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>--C--</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>--D--</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>--E--</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>--F--</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>--G--</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>--H--</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>--I--</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>--A--</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>--B--</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>--C--</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>--D--</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>--E--</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>--F--</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>--G--</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>--H--</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>--I--</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>--A--</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>--B--</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>--C--</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>--D--</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>--E--</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>--F--</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>--G--</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>--H--</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>--I--</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>--A--</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>--B--</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>--C--</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>--D--</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>--E--</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>--F--</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>--G--</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>--H--</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>--I--</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>--A--</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>--B--</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>--C--</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>--D--</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>--E--</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>--F--</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>--G--</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>--H--</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>--I--</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>--A--</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>--B--</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>--C--</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>--D--</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>--E--</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>--F--</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>--G--</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>--H--</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>--I--</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>--A--</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>--B--</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>--C--</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>--D--</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>--E--</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>--F--</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>--G--</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>--H--</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>--I--</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>--A--</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>--B--</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>--C--</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>--D--</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>--E--</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>--F--</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>--G--</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>--H--</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>--I--</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>--A--</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>--B--</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>--C--</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>--D--</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>--E--</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>--F--</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>--G--</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>--H--</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>--I--</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Python3/src/13 Financial Python/Spreadsheets/data/writingToCells.xlsx
+++ b/Python3/src/13 Financial Python/Spreadsheets/data/writingToCells.xlsx
@@ -359,7 +359,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n">
-        <v>43797.53612576699</v>
+        <v>43825.517332362</v>
       </c>
       <c r="B1" t="n">
         <v>42</v>
